--- a/Data Engineer list (1).xlsx
+++ b/Data Engineer list (1).xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kodav\Desktop\1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95218595-84C9-4472-B764-2828B1A4A64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,173 +25,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="157">
-  <si>
-    <t xml:space="preserve">EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prabal.p@usgrpinc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">614-495-9222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.Gonzalez@myles-roberts.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 501-287-4016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salagala@fluxteksol.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 832-558-2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sudip.lal@panzersolutions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203-442-9751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mayank@istream-solutions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">541-256-2085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harry.singh@metasenseusa.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(856) 269-0405 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">resourcesatheesh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+91 960 397 5899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ankitsingh@enterprisesolutioninc.com  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">630-601-1838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrunali@cy9.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fareedk@enterprisesolutioninc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teja@pixeltechnologyservices.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suresh@tridentconsultinginc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">925.488.1820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sundram.jha@compunnel.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(+1) 732-538-7759 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> davinder@propelsys.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">432-218-4657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mpujari@virtuegroup.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">469-575-3842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadeem.khan@panzersolutions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(724) 566-3368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ankit.r@alphasilicon.us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(951) 530-1109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSaipavan@talentgroups.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 847.305.3859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mathew@spartantechinc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vivek.singh@aptino.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(817) 803-8818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abdul@cognowiz.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(571) 6858336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">himanshus@monteksys.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amanjha@enterprisesolutioninc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">469-425-4982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anubhav@hirexcorp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302-298-0986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ashukla@contech-it.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">914-370-4555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asundar@primusglobal.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(972) 798-2408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sahil.s@erostechnologies.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(408) 451-1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">astha@enterprisesolutioninc.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PH NO</t>
+  </si>
+  <si>
+    <t>prabal.p@usgrpinc.com</t>
+  </si>
+  <si>
+    <t>614-495-9222</t>
+  </si>
+  <si>
+    <t>N.Gonzalez@myles-roberts.com</t>
+  </si>
+  <si>
+    <t>+1 501-287-4016</t>
+  </si>
+  <si>
+    <t>salagala@fluxteksol.com</t>
+  </si>
+  <si>
+    <t>+1 832-558-2010</t>
+  </si>
+  <si>
+    <t>sudip.lal@panzersolutions.com</t>
+  </si>
+  <si>
+    <t>203-442-9751</t>
+  </si>
+  <si>
+    <t>mayank@istream-solutions.com</t>
+  </si>
+  <si>
+    <t>541-256-2085</t>
+  </si>
+  <si>
+    <t>harry.singh@metasenseusa.com</t>
+  </si>
+  <si>
+    <t>(856) 269-0405 </t>
+  </si>
+  <si>
+    <t>resourcesatheesh@gmail.com</t>
+  </si>
+  <si>
+    <t>+91 960 397 5899</t>
+  </si>
+  <si>
+    <t>ankitsingh@enterprisesolutioninc.com  </t>
+  </si>
+  <si>
+    <t>630-601-1838</t>
+  </si>
+  <si>
+    <t>mrunali@cy9.io</t>
+  </si>
+  <si>
+    <t>fareedk@enterprisesolutioninc.com</t>
+  </si>
+  <si>
+    <t>teja@pixeltechnologyservices.com</t>
+  </si>
+  <si>
+    <t>suresh@tridentconsultinginc.com</t>
+  </si>
+  <si>
+    <t>925.488.1820</t>
+  </si>
+  <si>
+    <t>sundram.jha@compunnel.com</t>
+  </si>
+  <si>
+    <t>(+1) 732-538-7759 </t>
+  </si>
+  <si>
+    <t> davinder@propelsys.com</t>
+  </si>
+  <si>
+    <t>432-218-4657</t>
+  </si>
+  <si>
+    <t>mpujari@virtuegroup.com</t>
+  </si>
+  <si>
+    <t>469-575-3842</t>
+  </si>
+  <si>
+    <t>nadeem.khan@panzersolutions.com</t>
+  </si>
+  <si>
+    <t>(724) 566-3368</t>
+  </si>
+  <si>
+    <t>ankit.r@alphasilicon.us</t>
+  </si>
+  <si>
+    <t>(951) 530-1109</t>
+  </si>
+  <si>
+    <t>TSaipavan@talentgroups.com</t>
+  </si>
+  <si>
+    <t> 847.305.3859</t>
+  </si>
+  <si>
+    <t>mathew@spartantechinc.com</t>
+  </si>
+  <si>
+    <t>vivek.singh@aptino.com</t>
+  </si>
+  <si>
+    <t>(817) 803-8818</t>
+  </si>
+  <si>
+    <t>abdul@cognowiz.com</t>
+  </si>
+  <si>
+    <t>(571) 6858336</t>
+  </si>
+  <si>
+    <t>himanshus@monteksys.com</t>
+  </si>
+  <si>
+    <t>amanjha@enterprisesolutioninc.com</t>
+  </si>
+  <si>
+    <t>469-425-4982</t>
+  </si>
+  <si>
+    <t>Anubhav@hirexcorp.com</t>
+  </si>
+  <si>
+    <t>302-298-0986</t>
+  </si>
+  <si>
+    <t>ashukla@contech-it.com</t>
+  </si>
+  <si>
+    <t>914-370-4555</t>
+  </si>
+  <si>
+    <t>asundar@primusglobal.com</t>
+  </si>
+  <si>
+    <t>(972) 798-2408</t>
+  </si>
+  <si>
+    <t>sahil.s@erostechnologies.com</t>
+  </si>
+  <si>
+    <t>(408) 451-1959</t>
+  </si>
+  <si>
+    <t>astha@enterprisesolutioninc.com</t>
   </si>
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+1  331-310-2465</t>
+      <t>+1  331-310-2465</t>
     </r>
     <r>
       <rPr>
@@ -195,134 +200,134 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">  </t>
+      <t>  </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">srinathv@fixitytech.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 331-334-4065   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- 630-601-1838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shashankd@enterprisesolutioninc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 331-704 -1540</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gauravkr@enterprisesolutioninc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +1 630-206-9425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ssaini@hirexcorp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rishi.gupta@xoriant.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">408-692-3252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shraddha.d@net2source.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(201) 500-9645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suraj@vitsus.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 (203) 549-1639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">satyam@hirexcorp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">972-725-8458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smendonza@contech-it.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (551) 288-7855</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lakshmi@mericaninc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 410-505-8117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mathew@spartantechnic.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demo.jones@panzersolutions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203-442-9704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssaluvala@vsoftconsulting.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502.890.1435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nishchal@hirexcorp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302-205-0222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varun.a@net2source.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(201) 568-3566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srinathb@natsoft.us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 (732) 454 1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monika@hirexcorp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">765-273-4344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seema@kairostech.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">972-597-7972 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mir.arfat@bravensinc.com  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-770-8074)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stella@tekgence.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4698048996 * 118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saikrishna.vemasani@disys.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 602.456.2586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farees.khan@bravensinc.com </t>
+    <t>srinathv@fixitytech.com</t>
+  </si>
+  <si>
+    <t> 331-334-4065   </t>
+  </si>
+  <si>
+    <t>1- 630-601-1838</t>
+  </si>
+  <si>
+    <t>shashankd@enterprisesolutioninc.com</t>
+  </si>
+  <si>
+    <t>+1 331-704 -1540</t>
+  </si>
+  <si>
+    <t> gauravkr@enterprisesolutioninc.com</t>
+  </si>
+  <si>
+    <t> +1 630-206-9425</t>
+  </si>
+  <si>
+    <t>Ssaini@hirexcorp.com</t>
+  </si>
+  <si>
+    <t>Rishi.gupta@xoriant.com </t>
+  </si>
+  <si>
+    <t>408-692-3252</t>
+  </si>
+  <si>
+    <t>shraddha.d@net2source.com</t>
+  </si>
+  <si>
+    <t>(201) 500-9645</t>
+  </si>
+  <si>
+    <t>suraj@vitsus.com</t>
+  </si>
+  <si>
+    <t>+1 (203) 549-1639</t>
+  </si>
+  <si>
+    <t>satyam@hirexcorp.com</t>
+  </si>
+  <si>
+    <t>972-725-8458</t>
+  </si>
+  <si>
+    <t>smendonza@contech-it.com</t>
+  </si>
+  <si>
+    <t> (551) 288-7855</t>
+  </si>
+  <si>
+    <t> lakshmi@mericaninc.com</t>
+  </si>
+  <si>
+    <t> 410-505-8117</t>
+  </si>
+  <si>
+    <t>mathew@spartantechnic.com</t>
+  </si>
+  <si>
+    <t>demo.jones@panzersolutions.com</t>
+  </si>
+  <si>
+    <t>203-442-9704</t>
+  </si>
+  <si>
+    <t>ssaluvala@vsoftconsulting.com</t>
+  </si>
+  <si>
+    <t>502.890.1435</t>
+  </si>
+  <si>
+    <t>Nishchal@hirexcorp.com</t>
+  </si>
+  <si>
+    <t>302-205-0222</t>
+  </si>
+  <si>
+    <t>Varun.a@net2source.com</t>
+  </si>
+  <si>
+    <t>(201) 568-3566</t>
+  </si>
+  <si>
+    <t>srinathb@natsoft.us</t>
+  </si>
+  <si>
+    <t>+1 (732) 454 1959</t>
+  </si>
+  <si>
+    <t>Monika@hirexcorp.com</t>
+  </si>
+  <si>
+    <t>765-273-4344</t>
+  </si>
+  <si>
+    <t>seema@kairostech.com</t>
+  </si>
+  <si>
+    <t>972-597-7972 </t>
+  </si>
+  <si>
+    <t>mir.arfat@bravensinc.com  </t>
+  </si>
+  <si>
+    <t>703-770-8074)</t>
+  </si>
+  <si>
+    <t>stella@tekgence.com</t>
+  </si>
+  <si>
+    <t>4698048996 * 118</t>
+  </si>
+  <si>
+    <t>saikrishna.vemasani@disys.com</t>
+  </si>
+  <si>
+    <t> 602.456.2586</t>
+  </si>
+  <si>
+    <t>farees.khan@bravensinc.com </t>
   </si>
   <si>
     <r>
@@ -333,7 +338,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -343,35 +348,35 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">571-551-5273</t>
+      <t>571-551-5273</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Piyush.Mishra@acsicorp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(+1) 678-207-5260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jitender@resource-logistics.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 732-790-5817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shiva@hclglobal.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 302-214-1145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swathin@yochana.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (949) 577-7136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawood.khan@rulesiq.com</t>
+    <t>Piyush.Mishra@acsicorp.com</t>
+  </si>
+  <si>
+    <t>(+1) 678-207-5260</t>
+  </si>
+  <si>
+    <t>Jitender@resource-logistics.com </t>
+  </si>
+  <si>
+    <t> 732-790-5817</t>
+  </si>
+  <si>
+    <t>shiva@hclglobal.com</t>
+  </si>
+  <si>
+    <t> 302-214-1145</t>
+  </si>
+  <si>
+    <t>swathin@yochana.com</t>
+  </si>
+  <si>
+    <t> (949) 577-7136</t>
+  </si>
+  <si>
+    <t>dawood.khan@rulesiq.com</t>
   </si>
   <si>
     <r>
@@ -382,7 +387,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+1 6309820020</t>
+      <t>+1 6309820020</t>
     </r>
     <r>
       <rPr>
@@ -392,172 +397,171 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t> </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Gaurav.s@apetan.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315-381-9754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shreya.massey@maxeleven.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +1(609)331-9237   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rishabh.r@t3pillars.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(804) 203 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teja@talentgroups.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 847.474.3778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharoon.a@peritussoft.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">972-842-7096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thiru@tridentconsultinginc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(925) 315-4050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yallaiah.yerramsetty@denkensolutions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1(949) 416-8977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nishantsingh@enterprisesolutioninc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- 469-663-5879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vinoj@devpozent.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">908-854-4120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gandhinathan.e@tridentconsultinginc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(925) 215-7930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mihir.kaushik@rulesiq.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(630) 982-0027 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonal.sharad@excelonsolutions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">972-945-5872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mohdl@lancesoft.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (703) 936-5741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayushsharma@enterprisesolutioninc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 469-393-5091</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Avtar@3bstaffing.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 9735537609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rajitha@silverlinc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480-944-4256  EXT: 310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usha@globalsoftsystems.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">913-338-1400 X 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilip@titandata.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(732) 352-3236</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Swathi.B@reliantvision.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 732 3557809</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 972-945-5872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vikas.pithore@bravensinc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-822-7035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprasad@acetechcorp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">443-724-7792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achin@resource-logistics.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(732) 534-3480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naveen.sharma@excelonsolutions.com</t>
+    <t>Gaurav.s@apetan.com</t>
+  </si>
+  <si>
+    <t>315-381-9754</t>
+  </si>
+  <si>
+    <t>shreya.massey@maxeleven.com</t>
+  </si>
+  <si>
+    <t> +1(609)331-9237   </t>
+  </si>
+  <si>
+    <t>rishabh.r@t3pillars.com</t>
+  </si>
+  <si>
+    <t>(804) 203 1986</t>
+  </si>
+  <si>
+    <t>Teja@talentgroups.com</t>
+  </si>
+  <si>
+    <t> 847.474.3778</t>
+  </si>
+  <si>
+    <t>Sharoon.a@peritussoft.com</t>
+  </si>
+  <si>
+    <t>972-842-7096</t>
+  </si>
+  <si>
+    <t>thiru@tridentconsultinginc.com</t>
+  </si>
+  <si>
+    <t>(925) 315-4050</t>
+  </si>
+  <si>
+    <t>yallaiah.yerramsetty@denkensolutions.com</t>
+  </si>
+  <si>
+    <t>+1(949) 416-8977</t>
+  </si>
+  <si>
+    <t>nishantsingh@enterprisesolutioninc.com</t>
+  </si>
+  <si>
+    <t>1- 469-663-5879</t>
+  </si>
+  <si>
+    <t>vinoj@devpozent.com</t>
+  </si>
+  <si>
+    <t>908-854-4120</t>
+  </si>
+  <si>
+    <t>gandhinathan.e@tridentconsultinginc.com</t>
+  </si>
+  <si>
+    <t>(925) 215-7930</t>
+  </si>
+  <si>
+    <t>mihir.kaushik@rulesiq.com</t>
+  </si>
+  <si>
+    <t>(630) 982-0027 </t>
+  </si>
+  <si>
+    <t>sonal.sharad@excelonsolutions.com</t>
+  </si>
+  <si>
+    <t>972-945-5872</t>
+  </si>
+  <si>
+    <t>mohdl@lancesoft.com</t>
+  </si>
+  <si>
+    <t> (703) 936-5741</t>
+  </si>
+  <si>
+    <t>ayushsharma@enterprisesolutioninc.com</t>
+  </si>
+  <si>
+    <t>+1 469-393-5091</t>
+  </si>
+  <si>
+    <t> Avtar@3bstaffing.com </t>
+  </si>
+  <si>
+    <t>+1 9735537609</t>
+  </si>
+  <si>
+    <t>rajitha@silverlinc.com</t>
+  </si>
+  <si>
+    <t>480-944-4256  EXT: 310</t>
+  </si>
+  <si>
+    <t>usha@globalsoftsystems.com</t>
+  </si>
+  <si>
+    <t>913-338-1400 X 103</t>
+  </si>
+  <si>
+    <t>dilip@titandata.com</t>
+  </si>
+  <si>
+    <t>(732) 352-3236</t>
+  </si>
+  <si>
+    <t> Swathi.B@reliantvision.com</t>
+  </si>
+  <si>
+    <t>+1 732 3557809</t>
+  </si>
+  <si>
+    <t> 972-945-5872</t>
+  </si>
+  <si>
+    <t>vikas.pithore@bravensinc.com</t>
+  </si>
+  <si>
+    <t>703-822-7035</t>
+  </si>
+  <si>
+    <t>sprasad@acetechcorp.com</t>
+  </si>
+  <si>
+    <t>443-724-7792</t>
+  </si>
+  <si>
+    <t>Achin@resource-logistics.com</t>
+  </si>
+  <si>
+    <t>(732) 534-3480</t>
+  </si>
+  <si>
+    <t>naveen.sharma@excelonsolutions.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 972-8654-556</t>
   </si>
   <si>
-    <t xml:space="preserve">daniel@ie-tcs.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4253645689 Ext:1003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABallalatak@genesis10.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">507-838-9325</t>
+    <t>daniel@ie-tcs.com </t>
+  </si>
+  <si>
+    <t> 4253645689 Ext:1003</t>
+  </si>
+  <si>
+    <t>ABallalatak@genesis10.com</t>
+  </si>
+  <si>
+    <t>507-838-9325</t>
+  </si>
+  <si>
+    <t>uyewvtyfteruibewcxwexuy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="40">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -566,22 +570,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -589,7 +578,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -622,14 +611,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -639,17 +628,15 @@
     <font>
       <sz val="12"/>
       <name val="Josefin Sans"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Roboto"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -662,10 +649,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <name val="Raleway"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -714,7 +700,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -767,7 +753,6 @@
       <sz val="12"/>
       <color rgb="FF5D5D5B"/>
       <name val="Josefin Sans"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -795,11 +780,10 @@
       <sz val="12"/>
       <color rgb="FF152C53"/>
       <name val="Inherit"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -813,7 +797,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -849,7 +833,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -857,233 +841,140 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1142,30 +1033,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF1F497D"/>
       <rgbColor rgb="FF3C3C3B"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.45"/>
+    <col min="1" max="1" width="63.26953125" customWidth="1"/>
+    <col min="2" max="2" width="53.26953125" customWidth="1"/>
+    <col min="3" max="1025" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,11 +1372,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:2" ht="15.5">
+      <c r="A2" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="15.5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1185,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="15.5">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1201,7 +1402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="15.5">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1209,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="15.5">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1217,7 +1418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="15.5">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -1225,7 +1426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" ht="15.5">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1233,7 +1434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="15.5">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -1241,25 +1442,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" ht="15.5">
       <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" ht="15.5">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" ht="15.5">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" ht="15.5">
       <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
@@ -1267,7 +1468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" ht="15.5">
       <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
@@ -1275,7 +1476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" ht="15.5">
       <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" ht="15.5">
       <c r="A17" s="9" t="s">
         <v>27</v>
       </c>
@@ -1291,7 +1492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="15.5">
       <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
@@ -1299,7 +1500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" ht="15.5">
       <c r="A19" s="10" t="s">
         <v>31</v>
       </c>
@@ -1307,7 +1508,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" ht="15.5">
       <c r="A20" s="9" t="s">
         <v>33</v>
       </c>
@@ -1315,15 +1516,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" ht="15.5">
       <c r="A21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="3">
         <v>9727367006</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" ht="15.5">
       <c r="A22" s="11" t="s">
         <v>36</v>
       </c>
@@ -1331,7 +1532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" ht="15.5">
       <c r="A23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1339,15 +1540,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" ht="15.5">
       <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="3">
         <v>9495703573</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" ht="15.5">
       <c r="A25" s="9" t="s">
         <v>41</v>
       </c>
@@ -1355,7 +1556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" ht="15.5">
       <c r="A26" s="10" t="s">
         <v>43</v>
       </c>
@@ -1363,7 +1564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" ht="15.5">
       <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
@@ -1371,7 +1572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" ht="15.5">
       <c r="A28" s="11" t="s">
         <v>47</v>
       </c>
@@ -1379,7 +1580,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" ht="15.5">
       <c r="A29" s="10" t="s">
         <v>41</v>
       </c>
@@ -1387,7 +1588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" ht="15.5">
       <c r="A30" s="11" t="s">
         <v>49</v>
       </c>
@@ -1395,7 +1596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" ht="15.5">
       <c r="A31" s="11" t="s">
         <v>51</v>
       </c>
@@ -1403,7 +1604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2" ht="15.5">
       <c r="A32" s="9" t="s">
         <v>53</v>
       </c>
@@ -1411,7 +1612,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2" ht="15.5">
       <c r="A33" s="9" t="s">
         <v>16</v>
       </c>
@@ -1419,7 +1620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2" ht="15.5">
       <c r="A34" s="10" t="s">
         <v>56</v>
       </c>
@@ -1427,7 +1628,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:2" ht="15.5">
       <c r="A35" s="9" t="s">
         <v>58</v>
       </c>
@@ -1435,7 +1636,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:2" ht="15.5">
       <c r="A36" s="9" t="s">
         <v>60</v>
       </c>
@@ -1443,15 +1644,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:2" ht="15.5">
       <c r="A37" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="17" t="n">
+      <c r="B37" s="17">
         <v>4693811632</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:2" ht="15.5">
       <c r="A38" s="9" t="s">
         <v>61</v>
       </c>
@@ -1459,7 +1660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:2" ht="15.5">
       <c r="A39" s="9" t="s">
         <v>63</v>
       </c>
@@ -1467,7 +1668,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:2" ht="15.5">
       <c r="A40" s="10" t="s">
         <v>65</v>
       </c>
@@ -1475,7 +1676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:2" ht="15.5">
       <c r="A41" s="9" t="s">
         <v>67</v>
       </c>
@@ -1483,7 +1684,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:2" ht="15.5">
       <c r="A42" s="9" t="s">
         <v>69</v>
       </c>
@@ -1491,7 +1692,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:2" ht="18.5">
       <c r="A43" s="9" t="s">
         <v>71</v>
       </c>
@@ -1499,15 +1700,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:2" ht="15.5">
       <c r="A44" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="4">
         <v>9727367006</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:2" ht="15.5">
       <c r="A45" s="9" t="s">
         <v>74</v>
       </c>
@@ -1515,7 +1716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:2" ht="15.5">
       <c r="A46" s="9" t="s">
         <v>76</v>
       </c>
@@ -1523,7 +1724,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:2" ht="18">
       <c r="A47" s="9" t="s">
         <v>78</v>
       </c>
@@ -1531,7 +1732,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:2" ht="15.5">
       <c r="A48" s="9" t="s">
         <v>80</v>
       </c>
@@ -1539,7 +1740,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:2" ht="15.5">
       <c r="A49" s="22" t="s">
         <v>82</v>
       </c>
@@ -1547,7 +1748,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:2" ht="15.5">
       <c r="A50" s="10" t="s">
         <v>84</v>
       </c>
@@ -1555,7 +1756,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:2" ht="15.5">
       <c r="A51" s="9" t="s">
         <v>86</v>
       </c>
@@ -1563,7 +1764,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:2" ht="15.5">
       <c r="A52" s="9" t="s">
         <v>88</v>
       </c>
@@ -1571,19 +1772,19 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:2" ht="15.5">
       <c r="A53" s="11"/>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:2" ht="15.5">
       <c r="A54" s="23"/>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:2" ht="15.5">
       <c r="A55" s="11"/>
       <c r="B55" s="24"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:2" ht="15.5">
       <c r="A56" s="9" t="s">
         <v>90</v>
       </c>
@@ -1591,7 +1792,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:2" ht="15.5">
       <c r="A57" s="9" t="s">
         <v>92</v>
       </c>
@@ -1599,7 +1800,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:2" ht="15.5">
       <c r="A58" s="9" t="s">
         <v>94</v>
       </c>
@@ -1607,7 +1808,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:2" ht="15.5">
       <c r="A59" s="10" t="s">
         <v>96</v>
       </c>
@@ -1615,7 +1816,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:2" ht="15.5">
       <c r="A60" s="9" t="s">
         <v>98</v>
       </c>
@@ -1623,7 +1824,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:2" ht="15.5">
       <c r="A61" s="9" t="s">
         <v>100</v>
       </c>
@@ -1631,7 +1832,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:2" ht="15.5">
       <c r="A62" s="9" t="s">
         <v>102</v>
       </c>
@@ -1639,7 +1840,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:2" ht="15.5">
       <c r="A63" s="9" t="s">
         <v>104</v>
       </c>
@@ -1647,7 +1848,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:2" ht="15.5">
       <c r="A64" s="9" t="s">
         <v>106</v>
       </c>
@@ -1655,7 +1856,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:2" ht="15.5">
       <c r="A65" s="9" t="s">
         <v>108</v>
       </c>
@@ -1663,7 +1864,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:2" ht="15.5">
       <c r="A66" s="9" t="s">
         <v>110</v>
       </c>
@@ -1671,7 +1872,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:2" ht="15.5">
       <c r="A67" s="22" t="s">
         <v>112</v>
       </c>
@@ -1679,7 +1880,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:2" ht="15.5">
       <c r="A68" s="10" t="s">
         <v>114</v>
       </c>
@@ -1687,7 +1888,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:2" ht="17.5">
       <c r="A69" s="10" t="s">
         <v>116</v>
       </c>
@@ -1695,7 +1896,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:2" ht="15.5">
       <c r="A70" s="9" t="s">
         <v>118</v>
       </c>
@@ -1703,7 +1904,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:2" ht="15.5">
       <c r="A71" s="10" t="s">
         <v>120</v>
       </c>
@@ -1711,7 +1912,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:2" ht="15.5">
       <c r="A72" s="37" t="s">
         <v>122</v>
       </c>
@@ -1719,7 +1920,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:2" ht="15.5">
       <c r="A73" s="10" t="s">
         <v>124</v>
       </c>
@@ -1727,7 +1928,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:2" ht="15.5">
       <c r="A74" s="10" t="s">
         <v>126</v>
       </c>
@@ -1735,7 +1936,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:2" ht="15.5">
       <c r="A75" s="10" t="s">
         <v>128</v>
       </c>
@@ -1743,7 +1944,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:2" ht="15.5">
       <c r="A76" s="9" t="s">
         <v>130</v>
       </c>
@@ -1751,7 +1952,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:2" ht="15.5">
       <c r="A77" s="10" t="s">
         <v>132</v>
       </c>
@@ -1759,7 +1960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:2" ht="15.5">
       <c r="A78" s="9" t="s">
         <v>134</v>
       </c>
@@ -1767,7 +1968,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:2" ht="15.5">
       <c r="A79" s="42" t="s">
         <v>136</v>
       </c>
@@ -1775,7 +1976,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:2" ht="15.5">
       <c r="A80" s="9" t="s">
         <v>138</v>
       </c>
@@ -1783,7 +1984,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:2" ht="15.5">
       <c r="A81" s="9" t="s">
         <v>140</v>
       </c>
@@ -1791,7 +1992,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:2" ht="15.5">
       <c r="A82" s="9" t="s">
         <v>142</v>
       </c>
@@ -1799,7 +2000,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:2" ht="15.5">
       <c r="A83" s="9" t="s">
         <v>128</v>
       </c>
@@ -1807,7 +2008,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:2" ht="15.5">
       <c r="A84" s="10" t="s">
         <v>145</v>
       </c>
@@ -1815,7 +2016,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:2" ht="15.5">
       <c r="A85" s="9" t="s">
         <v>147</v>
       </c>
@@ -1823,7 +2024,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:2" ht="15.5">
       <c r="A86" s="9" t="s">
         <v>149</v>
       </c>
@@ -1831,7 +2032,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:2" ht="15.5">
       <c r="A87" s="9" t="s">
         <v>151</v>
       </c>
@@ -1839,7 +2040,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:2" ht="15.5">
       <c r="A88" s="9" t="s">
         <v>153</v>
       </c>
@@ -1847,7 +2048,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:2" ht="15.5">
       <c r="A89" s="11" t="s">
         <v>155</v>
       </c>
@@ -1855,93 +2056,82 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:2" ht="15.5">
       <c r="A90" s="11"/>
       <c r="B90" s="35"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:2" ht="15.5">
       <c r="A91" s="5"/>
       <c r="B91" s="35"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:2" ht="15.5">
       <c r="A92" s="5"/>
-      <c r="B92" s="46"/>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="93" spans="1:2" ht="15.5">
       <c r="A93" s="5"/>
-      <c r="B93" s="46"/>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="94" spans="1:2" ht="15.5">
       <c r="A94" s="5"/>
-      <c r="B94" s="46"/>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="46"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="prabal.p@usgrpinc.com"/>
-    <hyperlink ref="A4" r:id="rId2" display="N.Gonzalez@myles-roberts.com"/>
-    <hyperlink ref="A6" r:id="rId3" display="sudip.lal@panzersolutions.com"/>
-    <hyperlink ref="A10" r:id="rId4" display="ankitsingh@enterprisesolutioninc.com  "/>
-    <hyperlink ref="A12" r:id="rId5" display="fareedk@enterprisesolutioninc.com"/>
-    <hyperlink ref="A13" r:id="rId6" display="teja@pixeltechnologyservices.com"/>
-    <hyperlink ref="B15" r:id="rId7" display="(+1) 732-538-7759 "/>
-    <hyperlink ref="A16" r:id="rId8" display=" davinder@propelsys.com"/>
-    <hyperlink ref="A17" r:id="rId9" display="mpujari@virtuegroup.com"/>
-    <hyperlink ref="A18" r:id="rId10" display="nadeem.khan@panzersolutions.com"/>
-    <hyperlink ref="A20" r:id="rId11" display="TSaipavan@talentgroups.com"/>
-    <hyperlink ref="A21" r:id="rId12" display="mathew@spartantechinc.com"/>
-    <hyperlink ref="A25" r:id="rId13" display="amanjha@enterprisesolutioninc.com"/>
-    <hyperlink ref="A32" r:id="rId14" display="srinathv@fixitytech.com"/>
-    <hyperlink ref="A33" r:id="rId15" display="ankitsingh@enterprisesolutioninc.com  "/>
-    <hyperlink ref="A35" r:id="rId16" display=" gauravkr@enterprisesolutioninc.com"/>
-    <hyperlink ref="A36" r:id="rId17" display="Ssaini@hirexcorp.com"/>
-    <hyperlink ref="A37" r:id="rId18" display="fareedk@enterprisesolutioninc.com"/>
-    <hyperlink ref="A38" r:id="rId19" display="Rishi.gupta@xoriant.com "/>
-    <hyperlink ref="A39" r:id="rId20" display="shraddha.d@net2source.com"/>
-    <hyperlink ref="A41" r:id="rId21" display="satyam@hirexcorp.com"/>
-    <hyperlink ref="A42" r:id="rId22" display="smendonza@contech-it.com"/>
-    <hyperlink ref="A43" r:id="rId23" display=" lakshmi@mericaninc.com"/>
-    <hyperlink ref="A44" r:id="rId24" display="mathew@spartantechnic.com"/>
-    <hyperlink ref="A45" r:id="rId25" display="demo.jones@panzersolutions.com"/>
-    <hyperlink ref="A46" r:id="rId26" display="ssaluvala@vsoftconsulting.com"/>
-    <hyperlink ref="A47" r:id="rId27" display="Nishchal@hirexcorp.com"/>
-    <hyperlink ref="A48" r:id="rId28" display="Varun.a@net2source.com"/>
-    <hyperlink ref="A49" r:id="rId29" display="srinathb@natsoft.us"/>
-    <hyperlink ref="A51" r:id="rId30" display="seema@kairostech.com"/>
-    <hyperlink ref="A52" r:id="rId31" display="mir.arfat@bravensinc.com  "/>
-    <hyperlink ref="A56" r:id="rId32" display="stella@tekgence.com"/>
-    <hyperlink ref="A57" r:id="rId33" display="saikrishna.vemasani@disys.com"/>
-    <hyperlink ref="A58" r:id="rId34" display="farees.khan@bravensinc.com "/>
-    <hyperlink ref="B59" r:id="rId35" display="(+1) 678-207-5260"/>
-    <hyperlink ref="A60" r:id="rId36" display="Jitender@resource-logistics.com "/>
-    <hyperlink ref="A61" r:id="rId37" display="shiva@hclglobal.com"/>
-    <hyperlink ref="A62" r:id="rId38" display="swathin@yochana.com"/>
-    <hyperlink ref="A63" r:id="rId39" display="dawood.khan@rulesiq.com"/>
-    <hyperlink ref="A64" r:id="rId40" display="Gaurav.s@apetan.com"/>
-    <hyperlink ref="A65" r:id="rId41" display="shreya.massey@maxeleven.com"/>
-    <hyperlink ref="A66" r:id="rId42" display="rishabh.r@t3pillars.com"/>
-    <hyperlink ref="A67" r:id="rId43" display="Teja@talentgroups.com"/>
-    <hyperlink ref="A70" r:id="rId44" display="yallaiah.yerramsetty@denkensolutions.com"/>
-    <hyperlink ref="A72" r:id="rId45" display="vinoj@devpozent.com"/>
-    <hyperlink ref="A76" r:id="rId46" display="mohdl@lancesoft.com"/>
-    <hyperlink ref="A78" r:id="rId47" display=" Avtar@3bstaffing.com "/>
-    <hyperlink ref="A80" r:id="rId48" display="usha@globalsoftsystems.com"/>
-    <hyperlink ref="A81" r:id="rId49" display="dilip@titandata.com"/>
-    <hyperlink ref="A82" r:id="rId50" display=" Swathi.B@reliantvision.com"/>
-    <hyperlink ref="A83" r:id="rId51" display="sonal.sharad@excelonsolutions.com"/>
-    <hyperlink ref="A85" r:id="rId52" display="sprasad@acetechcorp.com"/>
-    <hyperlink ref="A86" r:id="rId53" display="Achin@resource-logistics.com"/>
-    <hyperlink ref="A87" r:id="rId54" display="naveen.sharma@excelonsolutions.com"/>
-    <hyperlink ref="A88" r:id="rId55" display="daniel@ie-tcs.com "/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A32" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A33" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A35" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A36" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A37" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A38" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A39" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A41" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A42" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A43" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A44" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A45" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A46" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A47" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A48" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A49" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A52" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A56" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A57" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A58" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B59" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A60" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A61" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A62" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A63" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A64" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A65" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A66" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A67" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A70" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A72" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A76" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A78" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A80" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A81" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A82" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A83" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A85" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A86" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A87" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A88" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>